--- a/src/gen-server/port-battle.xlsx
+++ b/src/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -59,25 +59,28 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
     <t>Le Bucentaure</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Admiraal de Ruyter</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>Redoutable</t>
+  </si>
+  <si>
     <t>Bellona</t>
   </si>
   <si>
     <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Redoutable</t>
   </si>
   <si>
     <t>Constitution</t>
@@ -1640,7 +1643,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1686,7 +1689,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1736,7 +1739,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1747,10 +1750,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D45)</f>
+        <f>SUM(D5:D46)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E45)</f>
+        <f>SUM(E5:E46)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1780,7 +1783,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1803,13 +1806,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1834,7 +1837,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1857,13 +1860,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>361</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1888,7 +1891,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1936,7 +1939,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
@@ -1950,7 +1953,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="30" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D8" s="30">
         <f>COUNTA(F8:AD8)</f>
@@ -1984,7 +1987,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -1998,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D9" s="30">
         <f>COUNTA(F9:AD9)</f>
@@ -2032,7 +2035,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2080,7 +2083,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
@@ -2094,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="26" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D11" s="26">
         <f>COUNTA(F11:AD11)</f>
@@ -2128,7 +2131,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2142,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="26" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="D12" s="26">
         <f>COUNTA(F12:AD12)</f>
@@ -2176,7 +2179,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2190,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="26" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
@@ -2224,7 +2227,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2238,7 +2241,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2272,7 +2275,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2286,7 +2289,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2320,7 +2323,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2368,7 +2371,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2416,55 +2419,55 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
-      <c r="A18" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="C18" s="26" t="n">
+        <v>400</v>
+      </c>
+      <c r="D18" s="26">
         <f>COUNTA(F18:AD18)</f>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="26">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
@@ -2512,7 +2515,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2526,7 +2529,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2560,7 +2563,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2574,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2608,7 +2611,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2622,7 +2625,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2656,7 +2659,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2704,55 +2707,55 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
-      <c r="A24" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="26" t="n">
-        <v>270</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="C24" s="30" t="n">
+        <v>290</v>
+      </c>
+      <c r="D24" s="30">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="30">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
@@ -2766,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2800,7 +2803,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2814,7 +2817,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2848,7 +2851,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2862,7 +2865,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2896,7 +2899,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2910,7 +2913,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2944,7 +2947,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -2992,7 +2995,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3006,7 +3009,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3040,7 +3043,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3088,7 +3091,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3102,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3136,7 +3139,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3150,7 +3153,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3184,7 +3187,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3232,7 +3235,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3246,7 +3249,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3280,7 +3283,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3294,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3328,7 +3331,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3376,7 +3379,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3424,7 +3427,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3438,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3472,7 +3475,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3486,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3520,7 +3523,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3568,55 +3571,55 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
-      <c r="A42" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="30" t="n">
+      <c r="C42" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="26">
         <f>C42*D42</f>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>5700</v>
@@ -3664,7 +3667,7 @@
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3678,7 +3681,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3712,7 +3715,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3726,7 +3729,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3760,15 +3763,55 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="31:32" customHeight="1">
+    <row r="46" spans="1:32" customHeight="1">
+      <c r="A46" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D46" s="30">
+        <f>COUNTA(F46:AD46)</f>
+      </c>
+      <c r="E46" s="30">
+        <f>C46*D46</f>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3776,7 +3819,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3784,7 +3827,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3792,7 +3835,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3800,7 +3843,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3808,7 +3851,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3816,7 +3859,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3824,7 +3867,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3832,7 +3875,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3840,7 +3883,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3848,7 +3891,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3856,7 +3899,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3864,7 +3907,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3872,7 +3915,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3880,7 +3923,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3888,7 +3931,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3896,7 +3939,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3904,7 +3947,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -3912,7 +3955,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -3920,7 +3963,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -3928,7 +3971,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -3936,7 +3979,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -3944,7 +3987,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3952,7 +3995,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3960,7 +4003,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -3968,7 +4011,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -3976,7 +4019,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -3984,7 +4027,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -3992,7 +4035,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4000,7 +4043,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4008,7 +4051,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4016,7 +4059,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4024,7 +4067,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4032,7 +4075,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4040,7 +4083,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4048,7 +4091,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4056,7 +4099,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4064,7 +4107,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4072,7 +4115,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4080,7 +4123,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4088,7 +4131,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4096,7 +4139,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4104,7 +4147,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4112,7 +4155,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4120,7 +4163,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4128,7 +4171,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4136,7 +4179,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4144,7 +4187,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4152,7 +4195,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4160,7 +4203,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4168,7 +4211,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4176,7 +4219,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4184,7 +4227,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4192,7 +4235,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4200,7 +4243,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4208,7 +4251,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4216,7 +4259,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4224,7 +4267,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4232,7 +4275,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4240,7 +4283,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4248,7 +4291,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4256,7 +4299,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4264,7 +4307,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4272,7 +4315,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4280,7 +4323,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4288,7 +4331,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4296,7 +4339,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4304,7 +4347,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4312,7 +4355,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4320,7 +4363,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4328,7 +4371,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4336,7 +4379,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4344,7 +4387,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4352,7 +4395,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4360,7 +4403,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4368,7 +4411,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4376,7 +4419,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4384,7 +4427,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4392,7 +4435,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4400,7 +4443,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4408,7 +4451,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4416,7 +4459,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4424,7 +4467,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4432,7 +4475,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4440,7 +4483,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4448,7 +4491,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4456,7 +4499,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4464,7 +4507,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4472,7 +4515,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4480,7 +4523,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4488,7 +4531,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4496,7 +4539,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4504,7 +4547,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4512,7 +4555,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4520,7 +4563,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4528,7 +4571,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4536,7 +4579,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4544,7 +4587,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4552,7 +4595,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4560,7 +4603,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4568,7 +4611,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4576,7 +4619,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4584,7 +4627,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4592,7 +4635,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4600,7 +4643,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4608,7 +4651,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4616,7 +4659,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4624,7 +4667,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4632,7 +4675,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4640,7 +4683,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4648,7 +4691,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4656,7 +4699,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4664,7 +4707,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4672,7 +4715,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4680,7 +4723,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4688,7 +4731,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4696,7 +4739,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4704,7 +4747,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4712,7 +4755,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4720,7 +4763,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4728,7 +4771,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4736,7 +4779,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4744,7 +4787,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4752,7 +4795,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4760,7 +4803,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4768,7 +4811,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4776,7 +4819,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4784,7 +4827,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4792,7 +4835,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4800,7 +4843,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4808,7 +4851,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4816,7 +4859,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4824,7 +4867,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4832,7 +4875,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4840,7 +4883,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4848,7 +4891,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4856,7 +4899,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4864,7 +4907,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4872,7 +4915,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4880,7 +4923,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4888,7 +4931,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4896,7 +4939,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4904,7 +4947,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -4912,7 +4955,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -4920,7 +4963,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -4928,7 +4971,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -4936,7 +4979,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -4944,7 +4987,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -4952,7 +4995,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -4960,7 +5003,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -4968,7 +5011,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -4976,7 +5019,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -4984,7 +5027,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -4992,7 +5035,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5000,7 +5043,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5008,7 +5051,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5016,7 +5059,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5024,7 +5067,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5032,7 +5075,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5040,7 +5083,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5048,7 +5091,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5056,7 +5099,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5064,7 +5107,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5072,7 +5115,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5080,7 +5123,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5088,7 +5131,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5096,7 +5139,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5104,7 +5147,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5112,7 +5155,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5120,7 +5163,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5128,7 +5171,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5136,7 +5179,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5144,7 +5187,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5152,7 +5195,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5160,7 +5203,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5168,7 +5211,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5176,7 +5219,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5184,7 +5227,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5192,7 +5235,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5200,7 +5243,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5208,7 +5251,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5216,7 +5259,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5224,7 +5267,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5232,7 +5275,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5240,7 +5283,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5248,7 +5291,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5256,7 +5299,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5264,7 +5307,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5272,7 +5315,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5280,7 +5323,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5288,7 +5331,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5296,7 +5339,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5304,7 +5347,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5312,7 +5355,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5320,7 +5363,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5328,7 +5371,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5336,7 +5379,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5344,7 +5387,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5352,7 +5395,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5360,7 +5403,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5368,7 +5411,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5376,7 +5419,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5384,7 +5427,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5392,7 +5435,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5400,7 +5443,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5408,7 +5451,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5416,7 +5459,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5424,7 +5467,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5432,7 +5475,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5440,7 +5483,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5448,7 +5491,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5456,7 +5499,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5464,7 +5507,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5472,7 +5515,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5480,7 +5523,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5488,7 +5531,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5496,7 +5539,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5504,7 +5547,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5512,7 +5555,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5520,7 +5563,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5528,7 +5571,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5536,7 +5579,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5544,7 +5587,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5552,7 +5595,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5560,7 +5603,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5568,7 +5611,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5576,7 +5619,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5584,7 +5627,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5592,7 +5635,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5600,7 +5643,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5608,7 +5651,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5616,7 +5659,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5624,7 +5667,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5632,7 +5675,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5640,7 +5683,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5648,7 +5691,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5656,7 +5699,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5664,7 +5707,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5672,7 +5715,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5680,7 +5723,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5688,7 +5731,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5696,7 +5739,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5704,7 +5747,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5712,7 +5755,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5720,7 +5763,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5728,7 +5771,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5736,7 +5779,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5744,7 +5787,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5752,7 +5795,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5760,7 +5803,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5768,7 +5811,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5776,7 +5819,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5784,7 +5827,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5792,7 +5835,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5800,7 +5843,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5808,7 +5851,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5816,7 +5859,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5824,7 +5867,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5832,7 +5875,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5840,7 +5883,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -5951,7 +5994,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -5997,7 +6040,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6047,7 +6090,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6091,7 +6134,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6102,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -6114,13 +6157,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6145,7 +6188,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6156,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>120</v>
@@ -6168,13 +6211,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>361</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6199,7 +6242,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6210,7 +6253,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6247,7 +6290,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
@@ -6258,7 +6301,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6295,7 +6338,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
@@ -6306,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6343,7 +6386,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6354,7 +6397,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6391,7 +6434,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6402,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6439,7 +6482,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6450,7 +6493,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6487,7 +6530,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6498,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6535,7 +6578,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6546,7 +6589,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>65</v>
@@ -6583,7 +6626,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6594,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6631,7 +6674,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6642,7 +6685,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>60</v>
@@ -6679,7 +6722,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6690,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6727,7 +6770,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
@@ -6738,7 +6781,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6775,7 +6818,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
@@ -6786,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6823,7 +6866,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
@@ -6834,7 +6877,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6871,7 +6914,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
@@ -6882,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6919,7 +6962,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
@@ -6930,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6967,7 +7010,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -6978,7 +7021,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -7015,7 +7058,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7026,7 +7069,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7063,7 +7106,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
@@ -7074,7 +7117,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7111,7 +7154,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
@@ -7122,7 +7165,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7159,7 +7202,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
@@ -7167,7 +7210,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
@@ -7175,7 +7218,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
@@ -7183,7 +7226,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7191,7 +7234,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7199,7 +7242,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7207,7 +7250,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7215,7 +7258,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7223,7 +7266,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7231,7 +7274,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7239,7 +7282,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7247,7 +7290,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7255,7 +7298,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7263,7 +7306,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7271,7 +7314,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7279,7 +7322,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7287,7 +7330,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7295,7 +7338,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7303,7 +7346,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7311,7 +7354,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7319,7 +7362,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7327,7 +7370,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7335,7 +7378,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7343,7 +7386,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7351,7 +7394,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7359,7 +7402,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7367,7 +7410,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7375,7 +7418,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7383,7 +7426,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7391,7 +7434,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7399,7 +7442,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7407,7 +7450,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7415,7 +7458,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7423,7 +7466,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7431,7 +7474,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7439,7 +7482,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7447,7 +7490,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7455,7 +7498,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7463,7 +7506,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7471,7 +7514,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7479,7 +7522,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7487,7 +7530,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7495,7 +7538,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7503,7 +7546,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7511,7 +7554,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7519,7 +7562,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7527,7 +7570,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7535,7 +7578,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>

--- a/src/gen-server/port-battle.xlsx
+++ b/src/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Tutorial Cerberus</t>
+  </si>
+  <si>
     <t>Le Requin</t>
   </si>
   <si>
@@ -1122,6 +1125,12 @@
   </si>
   <si>
     <t>Brig</t>
+  </si>
+  <si>
+    <t>Tutorial Trader</t>
+  </si>
+  <si>
+    <t>Tutorial Brig</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -1643,7 +1652,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1689,7 +1698,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1739,7 +1748,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1750,10 +1759,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D46)</f>
+        <f>SUM(D5:D47)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E46)</f>
+        <f>SUM(E5:E47)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1783,7 +1792,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1806,13 +1815,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1837,7 +1846,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1860,13 +1869,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1891,7 +1900,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1939,7 +1948,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
@@ -1987,7 +1996,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -2035,7 +2044,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2083,7 +2092,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
@@ -2131,7 +2140,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2179,7 +2188,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2227,7 +2236,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2275,7 +2284,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2323,7 +2332,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2371,7 +2380,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2419,7 +2428,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
@@ -2467,7 +2476,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
@@ -2515,7 +2524,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2563,7 +2572,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2611,7 +2620,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2659,7 +2668,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2707,7 +2716,7 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
@@ -2755,7 +2764,7 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
@@ -2803,7 +2812,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2851,7 +2860,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2899,7 +2908,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2947,7 +2956,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -2995,7 +3004,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3043,7 +3052,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3091,7 +3100,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3139,7 +3148,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3187,7 +3196,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3235,7 +3244,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3283,7 +3292,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3331,7 +3340,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3379,7 +3388,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3427,7 +3436,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3475,7 +3484,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3523,7 +3532,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3571,7 +3580,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>5700</v>
@@ -3619,55 +3628,55 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
-      <c r="A43" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="30" t="n">
+      <c r="C43" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="26">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="26">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
       <c r="AE43" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3715,7 +3724,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3729,7 +3738,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3763,7 +3772,7 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
@@ -3777,7 +3786,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
@@ -3811,15 +3820,55 @@
       <c r="AC46" s="29"/>
       <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" customHeight="1">
+    <row r="47" spans="1:32" customHeight="1">
+      <c r="A47" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D47" s="30">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="30">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
       <c r="AE47" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3827,7 +3876,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3835,7 +3884,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3843,7 +3892,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3851,7 +3900,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3859,7 +3908,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3867,7 +3916,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3875,7 +3924,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3883,7 +3932,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3891,7 +3940,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3899,7 +3948,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3907,7 +3956,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3915,7 +3964,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3923,7 +3972,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3931,7 +3980,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3939,7 +3988,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3947,7 +3996,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -3955,7 +4004,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -3963,7 +4012,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -3971,7 +4020,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -3979,7 +4028,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -3987,7 +4036,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3995,7 +4044,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -4003,7 +4052,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -4011,7 +4060,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -4019,7 +4068,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -4027,7 +4076,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -4035,7 +4084,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4043,7 +4092,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4051,7 +4100,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4059,7 +4108,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4067,7 +4116,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4075,7 +4124,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4083,7 +4132,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4091,7 +4140,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4099,7 +4148,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4107,7 +4156,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4115,7 +4164,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4123,7 +4172,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4131,7 +4180,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4139,7 +4188,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4147,7 +4196,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4155,7 +4204,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4163,7 +4212,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4171,7 +4220,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4179,7 +4228,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4187,7 +4236,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4195,7 +4244,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4203,7 +4252,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4211,7 +4260,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4219,7 +4268,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4227,7 +4276,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4235,7 +4284,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4243,7 +4292,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4251,7 +4300,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4259,7 +4308,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4267,7 +4316,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4275,7 +4324,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4283,7 +4332,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4291,7 +4340,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4299,7 +4348,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4307,7 +4356,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4315,7 +4364,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4323,7 +4372,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4331,7 +4380,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4339,7 +4388,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4347,7 +4396,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4355,7 +4404,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4363,7 +4412,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4371,7 +4420,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4379,7 +4428,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4387,7 +4436,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4395,7 +4444,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4403,7 +4452,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4411,7 +4460,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4419,7 +4468,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4427,7 +4476,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4435,7 +4484,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4443,7 +4492,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4451,7 +4500,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4459,7 +4508,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4467,7 +4516,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4475,7 +4524,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4483,7 +4532,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4491,7 +4540,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4499,7 +4548,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4507,7 +4556,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4515,7 +4564,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4523,7 +4572,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4531,7 +4580,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4539,7 +4588,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4547,7 +4596,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4555,7 +4604,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4563,7 +4612,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4571,7 +4620,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4579,7 +4628,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4587,7 +4636,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4595,7 +4644,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4603,7 +4652,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4611,7 +4660,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4619,7 +4668,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4627,7 +4676,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4635,7 +4684,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4643,7 +4692,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4651,7 +4700,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4659,7 +4708,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4667,7 +4716,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4675,7 +4724,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4683,7 +4732,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4691,7 +4740,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4699,7 +4748,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4707,7 +4756,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4715,7 +4764,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4723,7 +4772,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4731,7 +4780,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4739,7 +4788,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4747,7 +4796,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4755,7 +4804,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4763,7 +4812,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4771,7 +4820,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4779,7 +4828,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4787,7 +4836,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4795,7 +4844,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4803,7 +4852,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4811,7 +4860,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4819,7 +4868,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4827,7 +4876,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4835,7 +4884,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4843,7 +4892,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4851,7 +4900,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4859,7 +4908,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4867,7 +4916,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4875,7 +4924,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4883,7 +4932,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4891,7 +4940,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4899,7 +4948,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4907,7 +4956,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4915,7 +4964,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4923,7 +4972,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4931,7 +4980,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4939,7 +4988,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4947,7 +4996,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -4955,7 +5004,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -4963,7 +5012,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -4971,7 +5020,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -4979,7 +5028,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -4987,7 +5036,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -4995,7 +5044,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -5003,7 +5052,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -5011,7 +5060,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -5019,7 +5068,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -5027,7 +5076,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -5035,7 +5084,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5043,7 +5092,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5051,7 +5100,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5059,7 +5108,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5067,7 +5116,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5075,7 +5124,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5083,7 +5132,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5091,7 +5140,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5099,7 +5148,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5107,7 +5156,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5115,7 +5164,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5123,7 +5172,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5131,7 +5180,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5139,7 +5188,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5147,7 +5196,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5155,7 +5204,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5163,7 +5212,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5171,7 +5220,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5179,7 +5228,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5187,7 +5236,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5195,7 +5244,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5203,7 +5252,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5211,7 +5260,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5219,7 +5268,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5227,7 +5276,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5235,7 +5284,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5243,7 +5292,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5251,7 +5300,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5259,7 +5308,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5267,7 +5316,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5275,7 +5324,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5283,7 +5332,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5291,7 +5340,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5299,7 +5348,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5307,7 +5356,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5315,7 +5364,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5323,7 +5372,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5331,7 +5380,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5339,7 +5388,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5347,7 +5396,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5355,7 +5404,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5363,7 +5412,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5371,7 +5420,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5379,7 +5428,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5387,7 +5436,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5395,7 +5444,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5403,7 +5452,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5411,7 +5460,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5419,7 +5468,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5427,7 +5476,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5435,7 +5484,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5443,7 +5492,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5451,7 +5500,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5459,7 +5508,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5467,7 +5516,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5475,7 +5524,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5483,7 +5532,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5491,7 +5540,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5499,7 +5548,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5507,7 +5556,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5515,7 +5564,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5523,7 +5572,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5531,7 +5580,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5539,7 +5588,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5547,7 +5596,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5555,7 +5604,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5563,7 +5612,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5571,7 +5620,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5579,7 +5628,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5587,7 +5636,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5595,7 +5644,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5603,7 +5652,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5611,7 +5660,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5619,7 +5668,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5627,7 +5676,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5635,7 +5684,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5643,7 +5692,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5651,7 +5700,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5659,7 +5708,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5667,7 +5716,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5675,7 +5724,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5683,7 +5732,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5691,7 +5740,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5699,7 +5748,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5707,7 +5756,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5715,7 +5764,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5723,7 +5772,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5731,7 +5780,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5739,7 +5788,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5747,7 +5796,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5755,7 +5804,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5763,7 +5812,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5771,7 +5820,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5779,7 +5828,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5787,7 +5836,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5795,7 +5844,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5803,7 +5852,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5811,7 +5860,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5819,7 +5868,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5827,7 +5876,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5835,7 +5884,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5843,7 +5892,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5851,7 +5900,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5859,7 +5908,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5867,7 +5916,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5875,7 +5924,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5883,7 +5932,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -5994,7 +6043,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -6040,7 +6089,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6090,7 +6139,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6101,10 +6150,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D26)</f>
+        <f>SUM(D5:D28)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E26)</f>
+        <f>SUM(E5:E28)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6134,7 +6183,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6157,13 +6206,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6188,7 +6237,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6211,13 +6260,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6242,7 +6291,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6290,7 +6339,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
@@ -6338,7 +6387,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
@@ -6386,7 +6435,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6397,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6434,7 +6483,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6445,7 +6494,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6482,7 +6531,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6493,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6530,7 +6579,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6541,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6578,7 +6627,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6589,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>65</v>
@@ -6626,7 +6675,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6637,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6674,7 +6723,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6685,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>60</v>
@@ -6722,7 +6771,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6733,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6770,7 +6819,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
@@ -6781,7 +6830,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6818,7 +6867,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
@@ -6829,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6866,103 +6915,103 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="A20" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="30">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="26" t="n">
+      <c r="A21" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="30">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
@@ -6973,10 +7022,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C22" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
@@ -7010,7 +7059,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -7021,7 +7070,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -7058,7 +7107,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7069,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7106,7 +7155,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
@@ -7117,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7154,7 +7203,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
@@ -7165,10 +7214,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7202,23 +7251,103 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="31:32" customHeight="1">
+    <row r="27" spans="1:32" customHeight="1">
+      <c r="A27" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="26">
+        <f>COUNTA(F27:AD27)</f>
+      </c>
+      <c r="E27" s="26">
+        <f>C27*D27</f>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="31:32" customHeight="1">
+    <row r="28" spans="1:32" customHeight="1">
+      <c r="A28" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="26">
+        <f>COUNTA(F28:AD28)</f>
+      </c>
+      <c r="E28" s="26">
+        <f>C28*D28</f>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
@@ -7226,7 +7355,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7234,7 +7363,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7242,7 +7371,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7250,7 +7379,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7258,7 +7387,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7266,7 +7395,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7274,7 +7403,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7282,7 +7411,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7290,7 +7419,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7298,7 +7427,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7306,7 +7435,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7314,7 +7443,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7322,7 +7451,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7330,7 +7459,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7338,7 +7467,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7346,7 +7475,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7354,7 +7483,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7362,7 +7491,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7370,7 +7499,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7378,7 +7507,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7386,7 +7515,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7394,7 +7523,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7402,7 +7531,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7410,7 +7539,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7418,7 +7547,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7426,7 +7555,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7434,7 +7563,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7442,7 +7571,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7450,7 +7579,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7458,7 +7587,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7466,7 +7595,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7474,7 +7603,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7482,7 +7611,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7490,7 +7619,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7498,7 +7627,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7506,7 +7635,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7514,7 +7643,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7522,7 +7651,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7530,7 +7659,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7538,7 +7667,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7546,7 +7675,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7554,7 +7683,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7562,7 +7691,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7570,7 +7699,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7578,7 +7707,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>

--- a/src/gen-server/port-battle.xlsx
+++ b/src/gen-server/port-battle.xlsx
@@ -6150,10 +6150,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D28)</f>
+        <f>SUM(D5:D29)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E28)</f>
+        <f>SUM(E5:E29)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -7018,46 +7018,46 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" s="26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="A22" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="30" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="30">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
         <v>401</v>
       </c>
@@ -7070,10 +7070,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7118,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7166,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7214,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>30</v>
@@ -7262,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="26" t="n">
         <v>30</v>
@@ -7310,10 +7310,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -7353,7 +7353,47 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="31:32" customHeight="1">
+    <row r="29" spans="1:32" customHeight="1">
+      <c r="A29" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="26">
+        <f>COUNTA(F29:AD29)</f>
+      </c>
+      <c r="E29" s="26">
+        <f>C29*D29</f>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
         <v>408</v>
       </c>
